--- a/input/20240220_comparison_manual.xlsx
+++ b/input/20240220_comparison_manual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgeisenberger/Dropbox/Research/projects/ht-dna/analysis/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgeisenberger/Dropbox/Research/projects/ht-hite/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B229702E-30CB-7045-9B96-E90D7D871E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0230279E-4D43-024A-9B34-BD7E5B99F776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{8205C446-4336-45A6-AD0D-9D056E8407D0}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>Promega</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
@@ -150,16 +147,19 @@
     <t>Beads_1h</t>
   </si>
   <si>
-    <t>Promega_24h</t>
-  </si>
-  <si>
     <t>Column_24h</t>
   </si>
   <si>
     <t>Beads_24h</t>
   </si>
   <si>
-    <t>Promega_1h</t>
+    <t>Reference_1h</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Reference_24h</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B15" sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,16 +525,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -551,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>17.2</v>
@@ -574,13 +574,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -597,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>13.2</v>
@@ -620,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>8.84</v>
@@ -643,13 +643,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>2.94</v>
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>2.2400000000000002</v>
@@ -689,13 +689,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>2.74</v>
@@ -712,13 +712,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>2.74</v>
@@ -735,13 +735,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>5.12</v>
@@ -758,13 +758,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>3.94</v>
@@ -781,13 +781,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>1.8</v>
@@ -804,13 +804,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>4.84</v>
@@ -827,13 +827,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -850,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>13.5</v>
@@ -870,16 +870,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>20.8</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>20.399999999999999</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>14.4</v>
@@ -939,16 +939,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>15.2</v>
@@ -962,16 +962,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>14.7</v>
@@ -985,16 +985,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>15.9</v>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>16.5</v>
@@ -1031,16 +1031,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>16.100000000000001</v>
@@ -1054,16 +1054,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>11.1</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>17.899999999999999</v>
